--- a/cleanedgdp.xlsx
+++ b/cleanedgdp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\812-again\final poster\finalposter812\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D57528A8-A6C7-4521-B2F7-AB86FC34B633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0322D445-6D99-4023-8B7F-6AF79C9113C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{4CFAB2EE-CA30-4872-8B1F-073449C4D3FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4CFAB2EE-CA30-4872-8B1F-073449C4D3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Alabama</t>
   </si>
@@ -337,6 +337,15 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>code2</t>
   </si>
 </sst>
 </file>
@@ -688,572 +697,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9521B83-59F5-44BB-B00C-A6F798E203BC}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1.1000000000000001</v>
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>4.0999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.1</v>
+        <v>2.1</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>2.1</v>
+        <v>-0.1</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2.1</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>1.8</v>
+        <v>-1.2</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.7</v>
+        <v>0.3</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>2.2999999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0.4</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>-5.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>1.1000000000000001</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>2.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>3.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>1.1000000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.1</v>
+        <v>2.6</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>1.3</v>
+        <v>-0.1</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1.3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>2.1</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>101</v>
       </c>
     </row>
